--- a/R/MetricsData.xlsx
+++ b/R/MetricsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lauh/Documents/GitHub/subnational-indicators/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4340E9C0-D24C-9148-A04D-016B4B17BFC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC620DA1-BEE6-1840-8E05-10945B691BB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22160" yWindow="460" windowWidth="29040" windowHeight="15840" tabRatio="936" firstSheet="16" activeTab="25" xr2:uid="{29FFEC2B-42A4-4A73-9DC2-F22313672F12}"/>
+    <workbookView xWindow="16460" yWindow="460" windowWidth="29740" windowHeight="22560" tabRatio="936" firstSheet="8" activeTab="17" xr2:uid="{29FFEC2B-42A4-4A73-9DC2-F22313672F12}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7977" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7965" uniqueCount="543">
   <si>
     <t>Worksheet</t>
   </si>
@@ -1708,16 +1708,10 @@
     <t>E10000002</t>
   </si>
   <si>
-    <t>Taunton Deane</t>
+    <t>METADATA</t>
   </si>
   <si>
-    <t>localAuthorityDistrict</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>METADATA</t>
+    <t>09/2020 - 08/2021</t>
   </si>
 </sst>
 </file>
@@ -2202,10 +2196,10 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="B1:I26"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2213,9 +2207,9 @@
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -2676,7 +2670,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="15" t="s">
-        <v>74</v>
+        <v>542</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>21</v>
@@ -2751,7 +2745,7 @@
         <v>87</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="16" t="s">
@@ -4708,7 +4702,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -7714,8 +7708,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -10263,7 +10257,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -15262,7 +15256,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -16503,13 +16497,13 @@
   <dimension ref="A1:Z319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -18746,33 +18740,15 @@
       <c r="D204" s="12"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
-      <c r="R204" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="S204" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="T204" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="U204" s="13">
-        <v>201920</v>
-      </c>
-      <c r="V204" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="W204" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="X204" s="13">
-        <v>19</v>
-      </c>
-      <c r="Y204" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z204" s="13">
-        <v>71.196172250000004</v>
-      </c>
+      <c r="R204" s="13"/>
+      <c r="S204" s="13"/>
+      <c r="T204" s="13"/>
+      <c r="U204" s="13"/>
+      <c r="V204" s="13"/>
+      <c r="W204" s="13"/>
+      <c r="X204" s="13"/>
+      <c r="Y204" s="13"/>
+      <c r="Z204" s="13"/>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
@@ -20092,16 +20068,16 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:B153"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -20119,58 +20095,58 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>384</v>
+        <v>107</v>
       </c>
       <c r="B3">
-        <v>91.525400000000005</v>
+        <v>86.84210526315789</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>108</v>
       </c>
       <c r="B4">
-        <v>96.8</v>
+        <v>85.454545454545453</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>109</v>
       </c>
       <c r="B5">
-        <v>77.777799999999999</v>
+        <v>79.310344827586206</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B6">
-        <v>87.012999999999991</v>
+        <v>94.871794871794876</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="B7">
-        <v>76.056299999999993</v>
+        <v>78.571428571428569</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>112</v>
       </c>
       <c r="B8">
-        <v>84.810100000000006</v>
+        <v>83.07692307692308</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>370</v>
+        <v>113</v>
       </c>
       <c r="B9">
-        <v>80.865600000000001</v>
+        <v>95.454545454545453</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -20178,7 +20154,7 @@
         <v>114</v>
       </c>
       <c r="B10">
-        <v>86.842100000000002</v>
+        <v>86.84210526315789</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -20186,1143 +20162,1151 @@
         <v>115</v>
       </c>
       <c r="B11">
-        <v>88.095199999999991</v>
+        <v>88.095238095238088</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>347</v>
+        <v>116</v>
       </c>
       <c r="B12">
-        <v>87.692300000000003</v>
+        <v>84.536082474226802</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="B13">
-        <v>88.888900000000007</v>
+        <v>85.234899328859072</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B14">
-        <v>83.333299999999994</v>
+        <v>87.30158730158729</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>377</v>
+        <v>119</v>
       </c>
       <c r="B15">
-        <v>79.904299999999992</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>387</v>
+        <v>120</v>
       </c>
       <c r="B16">
-        <v>96.47059999999999</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B17">
-        <v>89.855099999999993</v>
+        <v>73.786407766990294</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B18">
-        <v>78.947400000000002</v>
+        <v>84.545454545454547</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>388</v>
+        <v>123</v>
       </c>
       <c r="B19">
-        <v>96.969700000000003</v>
+        <v>95.238095238095241</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B20">
-        <v>89.699600000000004</v>
+        <v>85.294117647058826</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>348</v>
+        <v>125</v>
       </c>
       <c r="B21">
-        <v>77.777799999999999</v>
+        <v>93.877551020408163</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>126</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>81.333333333333329</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>513</v>
+        <v>127</v>
       </c>
       <c r="B23">
-        <v>81.782899999999998</v>
+        <v>77.173913043478265</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>389</v>
+        <v>128</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>87.012987012987011</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="B25">
-        <v>88.461500000000001</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B26">
-        <v>88.461500000000001</v>
+        <v>84.415584415584419</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B27">
-        <v>91.35799999999999</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>383</v>
+        <v>132</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>75.510204081632651</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B29">
-        <v>83.393500000000003</v>
+        <v>85.714285714285722</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>371</v>
+        <v>134</v>
       </c>
       <c r="B30">
-        <v>86.440700000000007</v>
+        <v>75.308641975308646</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>390</v>
+        <v>135</v>
       </c>
       <c r="B31">
-        <v>89.256199999999993</v>
+        <v>81.818181818181813</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>514</v>
+        <v>136</v>
       </c>
       <c r="B32">
-        <v>89.655200000000008</v>
+        <v>81.159420289855078</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B33">
-        <v>78.571399999999997</v>
+        <v>86.538461538461547</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B34">
-        <v>73.7864</v>
+        <v>86.538461538461547</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>515</v>
+        <v>139</v>
       </c>
       <c r="B35">
-        <v>80.048100000000005</v>
+        <v>91.089108910891085</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>516</v>
+        <v>140</v>
       </c>
       <c r="B36">
-        <v>84.383600000000001</v>
+        <v>86.111111111111114</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>363</v>
+        <v>141</v>
       </c>
       <c r="B37">
-        <v>66.666700000000006</v>
+        <v>91.463414634146346</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B38">
-        <v>76.1006</v>
+        <v>86.440677966101703</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>372</v>
+        <v>143</v>
       </c>
       <c r="B39">
-        <v>78.5047</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B40">
-        <v>85.393300000000011</v>
+        <v>94.029850746268664</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>391</v>
+        <v>145</v>
       </c>
       <c r="B41">
-        <v>92.631600000000006</v>
+        <v>86.956521739130437</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B42">
-        <v>85.234899999999996</v>
+        <v>88.181818181818187</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>517</v>
+        <v>147</v>
       </c>
       <c r="B43">
-        <v>92.553200000000004</v>
+        <v>89.85507246376811</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>392</v>
+        <v>148</v>
       </c>
       <c r="B44">
-        <v>84.210499999999996</v>
+        <v>91.666666666666657</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>518</v>
+        <v>149</v>
       </c>
       <c r="B45">
-        <v>88.203299999999999</v>
+        <v>82.666666666666671</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>382</v>
+        <v>150</v>
       </c>
       <c r="B46">
-        <v>90.476199999999992</v>
+        <v>73.469387755102048</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>519</v>
+        <v>151</v>
       </c>
       <c r="B47">
-        <v>84.228200000000001</v>
+        <v>86.415094339622641</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>393</v>
+        <v>152</v>
       </c>
       <c r="B48">
-        <v>91.954000000000008</v>
+        <v>88.461538461538453</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>394</v>
+        <v>153</v>
       </c>
       <c r="B49">
-        <v>91.35799999999999</v>
+        <v>91.358024691358025</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="B50">
-        <v>83.076899999999995</v>
+        <v>88.590604026845639</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>395</v>
+        <v>155</v>
       </c>
       <c r="B51">
-        <v>95</v>
+        <v>83.032490974729242</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>520</v>
-      </c>
-      <c r="B52">
-        <v>93.155900000000003</v>
+        <v>156</v>
+      </c>
+      <c r="B52" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>396</v>
+        <v>157</v>
       </c>
       <c r="B53">
-        <v>97.619</v>
+        <v>80.519480519480524</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>397</v>
+        <v>158</v>
       </c>
       <c r="B54">
-        <v>91.666700000000006</v>
+        <v>76.056338028169023</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B55">
-        <v>86.842100000000002</v>
+        <v>87.692307692307693</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>398</v>
+        <v>160</v>
       </c>
       <c r="B56">
-        <v>91.463399999999993</v>
+        <v>84.567901234567898</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="B57">
-        <v>92.857100000000003</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>521</v>
+        <v>162</v>
       </c>
       <c r="B58">
-        <v>87.924500000000009</v>
+        <v>75.471698113207538</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>399</v>
+        <v>163</v>
       </c>
       <c r="B59">
-        <v>86.274500000000003</v>
+        <v>89.699570815450642</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>400</v>
+        <v>164</v>
       </c>
       <c r="B60">
-        <v>97.260300000000001</v>
+        <v>75.177304964539005</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B61">
-        <v>73.469399999999993</v>
+        <v>86.592178770949715</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>156</v>
-      </c>
-      <c r="B62" t="s">
-        <v>470</v>
+        <v>347</v>
+      </c>
+      <c r="B62">
+        <v>87.692307692307693</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="B63">
-        <v>91.176500000000004</v>
+        <v>77.777777777777771</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="B64">
-        <v>100</v>
+        <v>90.395480225988706</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>522</v>
+        <v>350</v>
       </c>
       <c r="B65">
-        <v>91.379300000000001</v>
+        <v>81.553398058252426</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>351</v>
       </c>
       <c r="B66">
-        <v>83.505200000000002</v>
+        <v>86.363636363636374</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="B67">
-        <v>90.196100000000001</v>
+        <v>80.808080808080803</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="B68">
-        <v>83.798900000000003</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B69">
-        <v>81.967199999999991</v>
+        <v>84.536082474226816</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="B70">
-        <v>93.333299999999994</v>
+        <v>93.548387096774192</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>523</v>
+        <v>356</v>
       </c>
       <c r="B71">
-        <v>90.271100000000004</v>
+        <v>90.697674418604649</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="B72">
-        <v>82.783900000000003</v>
+        <v>81.967213114754088</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>358</v>
       </c>
       <c r="B73">
-        <v>83.636399999999995</v>
+        <v>83.62573099415205</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>524</v>
+        <v>359</v>
       </c>
       <c r="B74">
-        <v>87.769800000000004</v>
+        <v>82.857142857142861</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="B75">
-        <v>91.764700000000005</v>
+        <v>86.538461538461547</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>525</v>
+        <v>361</v>
       </c>
       <c r="B76">
-        <v>83.008400000000009</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B77">
-        <v>83.625700000000009</v>
+        <v>77.777777777777771</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>136</v>
+        <v>363</v>
       </c>
       <c r="B78">
-        <v>81.159400000000005</v>
+        <v>67.460317460317455</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="B79">
-        <v>90.395499999999998</v>
+        <v>77.685950413223139</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>139</v>
+        <v>365</v>
       </c>
       <c r="B80">
-        <v>91.089100000000002</v>
+        <v>85.714285714285722</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="B81">
-        <v>94.642899999999997</v>
+        <v>88.775510204081641</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>367</v>
       </c>
       <c r="B82">
-        <v>85.454499999999996</v>
+        <v>91.139240506329116</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>146</v>
+        <v>368</v>
       </c>
       <c r="B83">
-        <v>88.181799999999996</v>
+        <v>90.322580645161295</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B84">
-        <v>88.775499999999994</v>
+        <v>87.068965517241367</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="B85">
-        <v>91.836700000000008</v>
+        <v>81.776765375854211</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>526</v>
+        <v>371</v>
       </c>
       <c r="B86">
-        <v>82.973600000000005</v>
+        <v>86.440677966101688</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>372</v>
       </c>
       <c r="B87">
-        <v>85.714299999999994</v>
+        <v>78.504672897196272</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>373</v>
       </c>
       <c r="B88">
-        <v>90</v>
+        <v>81.512605042016816</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>374</v>
       </c>
       <c r="B89">
-        <v>84.415599999999998</v>
+        <v>80.487804878048777</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B90">
-        <v>91.139200000000002</v>
+        <v>81.818181818181813</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>528</v>
+        <v>376</v>
       </c>
       <c r="B91">
-        <v>82.142899999999997</v>
+        <v>87.155963302752298</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>527</v>
+        <v>377</v>
       </c>
       <c r="B92">
-        <v>81.25</v>
+        <v>80.193236714975839</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>160</v>
+        <v>378</v>
       </c>
       <c r="B93">
-        <v>84.567899999999995</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>124</v>
+        <v>379</v>
       </c>
       <c r="B94">
-        <v>85.2941</v>
+        <v>83.798882681564251</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>529</v>
+        <v>380</v>
       </c>
       <c r="B95">
-        <v>85.970100000000002</v>
+        <v>83.088235294117652</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="B96">
-        <v>81.553399999999996</v>
+        <v>80.851063829787236</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>530</v>
+        <v>382</v>
       </c>
       <c r="B97">
-        <v>89.1892</v>
+        <v>90.476190476190482</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>383</v>
       </c>
       <c r="B98">
-        <v>81.81819999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>132</v>
+        <v>384</v>
       </c>
       <c r="B99">
-        <v>74.489799999999988</v>
+        <v>91.525423728813564</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>148</v>
+        <v>385</v>
       </c>
       <c r="B100">
-        <v>90</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>142</v>
+        <v>386</v>
       </c>
       <c r="B101">
-        <v>84.745800000000003</v>
+        <v>86.075949367088597</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="B102">
-        <v>96.103899999999996</v>
+        <v>95.294117647058812</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>388</v>
       </c>
       <c r="B103">
-        <v>79.310299999999998</v>
+        <v>96.969696969696969</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="B104">
-        <v>93.220299999999995</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="B105">
-        <v>86.363599999999991</v>
+        <v>89.256198347107443</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="B106">
-        <v>76.859499999999997</v>
+        <v>92.631578947368411</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
       <c r="B107">
-        <v>95.238100000000003</v>
+        <v>84.21052631578948</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="B108">
-        <v>80.80810000000001</v>
+        <v>91.954022988505756</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="B109">
-        <v>80.672299999999993</v>
+        <v>91.358024691358025</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="B110">
-        <v>86.538499999999999</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="B111">
-        <v>85.714299999999994</v>
+        <v>97.61904761904762</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>154</v>
+        <v>397</v>
       </c>
       <c r="B112">
-        <v>88.590599999999995</v>
+        <v>91.666666666666671</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>143</v>
+        <v>398</v>
       </c>
       <c r="B113">
-        <v>94</v>
+        <v>91.463414634146346</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="B114">
-        <v>80.487799999999993</v>
+        <v>88.118811881188122</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>531</v>
+        <v>400</v>
       </c>
       <c r="B115">
-        <v>83.458600000000004</v>
+        <v>97.260273972602747</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>401</v>
       </c>
       <c r="B116">
-        <v>81.25</v>
+        <v>91.17647058823529</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="B117">
-        <v>90.322599999999994</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>149</v>
+        <v>403</v>
       </c>
       <c r="B118">
-        <v>81.333299999999994</v>
+        <v>90.196078431372541</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>404</v>
       </c>
       <c r="B119">
-        <v>86.538499999999999</v>
+        <v>93.333333333333343</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B120">
-        <v>93.457900000000009</v>
+        <v>91.764705882352928</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="B121">
-        <v>81.428599999999989</v>
+        <v>94.642857142857139</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>532</v>
+        <v>407</v>
       </c>
       <c r="B122">
-        <v>85.353500000000011</v>
+        <v>91.83673469387756</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>353</v>
+        <v>408</v>
       </c>
       <c r="B123">
-        <v>87.5</v>
+        <v>96.103896103896105</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>110</v>
+        <v>409</v>
       </c>
       <c r="B124">
-        <v>93.589699999999993</v>
+        <v>94.915254237288138</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>410</v>
       </c>
       <c r="B125">
-        <v>77.173899999999989</v>
+        <v>93.45794392523365</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>533</v>
+        <v>411</v>
       </c>
       <c r="B126">
-        <v>81.308400000000006</v>
+        <v>93.650793650793645</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="B127">
-        <v>87.069000000000003</v>
+        <v>95.959595959595958</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>534</v>
+        <v>413</v>
       </c>
       <c r="B128">
-        <v>93.400999999999996</v>
+        <v>94.871794871794876</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B129">
-        <v>93.650800000000004</v>
+        <v>92.941176470588232</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="B130">
-        <v>75.308599999999998</v>
+        <v>93.103448275862064</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>354</v>
+        <v>513</v>
       </c>
       <c r="B131">
-        <v>84.536100000000005</v>
+        <v>82.558139534883722</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>126</v>
+        <v>514</v>
       </c>
       <c r="B132">
-        <v>81.333299999999994</v>
+        <v>89.65517241379311</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>515</v>
       </c>
       <c r="B133">
-        <v>86.538499999999999</v>
+        <v>80.04807692307692</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>516</v>
       </c>
       <c r="B134">
-        <v>83.333299999999994</v>
+        <v>84.109589041095887</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>412</v>
+        <v>517</v>
       </c>
       <c r="B135">
-        <v>95.959599999999995</v>
+        <v>92.553191489361708</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>355</v>
+        <v>518</v>
       </c>
       <c r="B136">
-        <v>93.548400000000001</v>
+        <v>88.203266787658791</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>381</v>
+        <v>519</v>
       </c>
       <c r="B137">
-        <v>80.851100000000002</v>
+        <v>83.892617449664428</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>375</v>
+        <v>520</v>
       </c>
       <c r="B138">
-        <v>80.165300000000002</v>
+        <v>93.346007604562743</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>413</v>
+        <v>521</v>
       </c>
       <c r="B139">
-        <v>94.871799999999993</v>
+        <v>87.924528301886795</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>414</v>
+        <v>522</v>
       </c>
       <c r="B140">
-        <v>92.941199999999995</v>
+        <v>91.551724137931032</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>113</v>
+        <v>523</v>
       </c>
       <c r="B141">
-        <v>95.454499999999996</v>
+        <v>90.271132376395542</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B142">
-        <v>85.892099999999999</v>
+        <v>88.129496402877692</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>525</v>
       </c>
       <c r="B143">
-        <v>91.463399999999993</v>
+        <v>83.286908077994426</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B144">
-        <v>86.713300000000004</v>
+        <v>83.213429256594722</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>415</v>
+        <v>528</v>
       </c>
       <c r="B145">
-        <v>93.103400000000008</v>
+        <v>81.542699724517917</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>356</v>
+        <v>529</v>
       </c>
       <c r="B146">
-        <v>90.697699999999998</v>
+        <v>85.97014925373135</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>157</v>
+        <v>530</v>
       </c>
       <c r="B147">
-        <v>80.08659999999999</v>
+        <v>89.189189189189193</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>144</v>
+        <v>531</v>
       </c>
       <c r="B148">
-        <v>94.029899999999998</v>
+        <v>83.333333333333329</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>361</v>
+        <v>532</v>
       </c>
       <c r="B149">
-        <v>83.2</v>
+        <v>85.606060606060609</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>145</v>
+        <v>533</v>
       </c>
       <c r="B150">
-        <v>85.507200000000012</v>
+        <v>81.619937694704049</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>376</v>
+        <v>534</v>
       </c>
       <c r="B151">
-        <v>86.238500000000002</v>
+        <v>93.401015228426388</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B152">
-        <v>83.539100000000005</v>
+        <v>86.721991701244804</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>120</v>
+        <v>536</v>
       </c>
       <c r="B153">
-        <v>88.888900000000007</v>
+        <v>86.71328671328672</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>537</v>
+      </c>
+      <c r="B154">
+        <v>83.539094650205769</v>
       </c>
     </row>
   </sheetData>
@@ -21347,7 +21331,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -23861,7 +23845,7 @@
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -23898,7 +23882,7 @@
         <v>109</v>
       </c>
       <c r="B5">
-        <v>26.5</v>
+        <v>26.54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -26803,7 +26787,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -29318,7 +29302,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -44687,13 +44671,16 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:B319"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -45158,2093 +45145,2072 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>485</v>
-      </c>
-      <c r="B59" t="s">
-        <v>470</v>
+        <v>163</v>
+      </c>
+      <c r="B59">
+        <v>1980</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>486</v>
-      </c>
-      <c r="B60" t="s">
-        <v>470</v>
+        <v>166</v>
+      </c>
+      <c r="B60">
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>487</v>
-      </c>
-      <c r="B61" t="s">
-        <v>470</v>
+        <v>167</v>
+      </c>
+      <c r="B61">
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>488</v>
-      </c>
-      <c r="B62" t="s">
-        <v>470</v>
+        <v>168</v>
+      </c>
+      <c r="B62">
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B63">
-        <v>420</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B64">
-        <v>405</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B65">
-        <v>356</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B66">
-        <v>1041</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B67">
-        <v>1335</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B68">
-        <v>300</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B69">
-        <v>88</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B70">
-        <v>471</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B71">
-        <v>107</v>
+        <v>509</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B72">
-        <v>265</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B73">
-        <v>197</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B74">
-        <v>509</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B75">
-        <v>446</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B76">
-        <v>276</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B77">
-        <v>423</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B78">
-        <v>203</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B79">
-        <v>245</v>
+        <v>872</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B80">
-        <v>465</v>
+        <v>520</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B81">
-        <v>1029</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B82">
-        <v>872</v>
+        <v>556</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B83">
-        <v>520</v>
+        <v>545</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B84">
-        <v>335</v>
+        <v>473</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B85">
-        <v>556</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B86">
-        <v>545</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B87">
-        <v>473</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B88">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B89">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B90">
-        <v>230</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B91">
-        <v>111</v>
+        <v>724</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B92">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B93">
-        <v>175</v>
+        <v>846</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B94">
-        <v>724</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B95">
-        <v>317</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B96">
-        <v>846</v>
+        <v>829</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B97">
-        <v>168</v>
+        <v>741</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B98">
-        <v>171</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B99">
-        <v>829</v>
+        <v>535</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B100">
-        <v>741</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B101">
-        <v>198</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B102">
-        <v>535</v>
+        <v>646</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B103">
-        <v>425</v>
+        <v>340</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B104">
-        <v>349</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B105">
-        <v>646</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B106">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B107">
-        <v>384</v>
+        <v>610</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B108">
-        <v>378</v>
+        <v>749</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B109">
-        <v>358</v>
+        <v>637</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B110">
-        <v>610</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B111">
-        <v>749</v>
+        <v>419</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B112">
-        <v>637</v>
+        <v>846</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B113">
-        <v>1241</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B114">
-        <v>419</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B115">
-        <v>846</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B116">
-        <v>117</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B117">
-        <v>278</v>
+        <v>422</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B118">
-        <v>581</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B119">
-        <v>294</v>
+        <v>879</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B120">
-        <v>422</v>
+        <v>804</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B121">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B122">
-        <v>879</v>
+        <v>751</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B123">
-        <v>804</v>
+        <v>456</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B124">
-        <v>202</v>
+        <v>593</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B125">
-        <v>751</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B126">
-        <v>456</v>
+        <v>395</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B127">
-        <v>593</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B128">
-        <v>100</v>
+        <v>438</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B129">
-        <v>395</v>
+        <v>606</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B130">
-        <v>1099</v>
+        <v>483</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B131">
-        <v>438</v>
+        <v>240</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B132">
-        <v>606</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B133">
-        <v>483</v>
+        <v>216</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B134">
-        <v>240</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B135">
-        <v>1377</v>
+        <v>610</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B136">
-        <v>216</v>
+        <v>540</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B137">
-        <v>489</v>
+        <v>441</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B138">
-        <v>610</v>
+        <v>690</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B139">
-        <v>540</v>
+        <v>234</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B140">
-        <v>441</v>
+        <v>306</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B141">
-        <v>690</v>
+        <v>292</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B142">
-        <v>234</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B143">
-        <v>306</v>
+        <v>430</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B144">
-        <v>292</v>
+        <v>342</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B145">
-        <v>180</v>
+        <v>909</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B146">
-        <v>430</v>
+        <v>453</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B147">
-        <v>342</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B148">
-        <v>909</v>
+        <v>424</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B149">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B150">
-        <v>77</v>
+        <v>576</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B151">
-        <v>424</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B152">
-        <v>451</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B153">
-        <v>576</v>
+        <v>974</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B154">
-        <v>292</v>
+        <v>267</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B155">
-        <v>1080</v>
+        <v>310</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B156">
-        <v>974</v>
+        <v>702</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B157">
-        <v>267</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B158">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B159">
-        <v>702</v>
+        <v>454</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B160">
-        <v>215</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B161">
-        <v>294</v>
+        <v>487</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B162">
-        <v>454</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B163">
-        <v>171</v>
+        <v>446</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B164">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B165">
-        <v>571</v>
+        <v>551</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B166">
-        <v>446</v>
+        <v>499</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B167">
-        <v>482</v>
+        <v>436</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B168">
-        <v>551</v>
+        <v>340</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B169">
-        <v>499</v>
+        <v>466</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B170">
-        <v>436</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B171">
-        <v>340</v>
+        <v>803</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>275</v>
+        <v>499</v>
       </c>
       <c r="B172">
-        <v>466</v>
+        <v>418</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>276</v>
+        <v>500</v>
       </c>
       <c r="B173">
-        <v>164</v>
+        <v>587</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>277</v>
+        <v>501</v>
       </c>
       <c r="B174">
-        <v>803</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B175">
-        <v>418</v>
+        <v>442</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B176">
-        <v>587</v>
+        <v>653</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B177">
-        <v>475</v>
+        <v>392</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B178">
-        <v>442</v>
+        <v>347</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>503</v>
+        <v>278</v>
       </c>
       <c r="B179">
-        <v>653</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>504</v>
+        <v>279</v>
       </c>
       <c r="B180">
-        <v>392</v>
+        <v>594</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>505</v>
+        <v>280</v>
       </c>
       <c r="B181">
-        <v>347</v>
+        <v>879</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B182">
-        <v>188</v>
+        <v>99</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B183">
-        <v>594</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B184">
-        <v>879</v>
+        <v>473</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B185">
-        <v>99</v>
+        <v>484</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B186">
-        <v>197</v>
+        <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B187">
-        <v>473</v>
+        <v>776</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B188">
-        <v>484</v>
+        <v>255</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B189">
-        <v>265</v>
+        <v>310</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B190">
-        <v>776</v>
+        <v>474</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B191">
-        <v>255</v>
+        <v>767</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B192">
-        <v>310</v>
+        <v>611</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B193">
-        <v>474</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B194">
-        <v>767</v>
+        <v>464</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B195">
-        <v>611</v>
+        <v>788</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B196">
-        <v>1192</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B197">
-        <v>464</v>
+        <v>868</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B198">
-        <v>788</v>
+        <v>321</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B199">
-        <v>1024</v>
+        <v>529</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B200">
-        <v>868</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B201">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B202">
-        <v>529</v>
+        <v>689</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B203">
-        <v>1093</v>
+        <v>548</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B204">
-        <v>319</v>
+        <v>630</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B205">
-        <v>689</v>
+        <v>413</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B206">
-        <v>548</v>
+        <v>614</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B207">
-        <v>630</v>
+        <v>209</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B208">
-        <v>413</v>
+        <v>461</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B209">
-        <v>614</v>
+        <v>527</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B210">
-        <v>209</v>
+        <v>243</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B211">
-        <v>461</v>
+        <v>844</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B212">
-        <v>527</v>
+        <v>310</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B213">
-        <v>243</v>
+        <v>129</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B214">
-        <v>844</v>
+        <v>863</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B215">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B216">
-        <v>129</v>
+        <v>801</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B217">
-        <v>863</v>
+        <v>269</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B218">
-        <v>274</v>
+        <v>508</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B219">
-        <v>801</v>
+        <v>352</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B220">
-        <v>269</v>
+        <v>117</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B221">
-        <v>508</v>
+        <v>666</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B222">
-        <v>352</v>
+        <v>141</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B223">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B224">
-        <v>666</v>
+        <v>601</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B225">
-        <v>141</v>
+        <v>832</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B226">
-        <v>137</v>
+        <v>843</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B227">
-        <v>601</v>
+        <v>752</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B228">
-        <v>832</v>
+        <v>209</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B229">
-        <v>843</v>
+        <v>691</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B230">
-        <v>752</v>
+        <v>530</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B231">
-        <v>209</v>
+        <v>568</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B232">
-        <v>691</v>
+        <v>771</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B233">
-        <v>530</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B234">
-        <v>568</v>
+        <v>107</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B235">
-        <v>771</v>
+        <v>151</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B236">
-        <v>1098</v>
+        <v>463</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B237">
-        <v>107</v>
+        <v>199</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B238">
-        <v>151</v>
+        <v>346</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B239">
-        <v>463</v>
+        <v>591</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B240">
-        <v>199</v>
+        <v>236</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B241">
-        <v>346</v>
+        <v>516</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B242">
-        <v>591</v>
+        <v>352</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B243">
-        <v>236</v>
+        <v>805</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B244">
-        <v>516</v>
+        <v>141</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B245">
-        <v>352</v>
+        <v>712</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B246">
-        <v>805</v>
+        <v>841</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B247">
-        <v>141</v>
+        <v>440</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B248">
-        <v>712</v>
+        <v>547</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B249">
-        <v>841</v>
+        <v>214</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B250">
-        <v>440</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B251">
-        <v>547</v>
+        <v>380</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B252">
-        <v>214</v>
+        <v>520</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B253">
-        <v>4024</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B254">
-        <v>380</v>
+        <v>551</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B255">
-        <v>520</v>
+        <v>368</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B256">
-        <v>3025</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B257">
-        <v>551</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B258">
-        <v>368</v>
+        <v>810</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B259">
-        <v>1081</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B260">
-        <v>1439</v>
+        <v>646</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B261">
-        <v>810</v>
+        <v>721</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B262">
-        <v>2363</v>
+        <v>574</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B263">
-        <v>646</v>
+        <v>590</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B264">
-        <v>721</v>
+        <v>761</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B265">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B266">
-        <v>590</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B267">
-        <v>761</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B268">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B269">
-        <v>1850</v>
+        <v>182</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B270">
-        <v>1268</v>
+        <v>669</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B271">
-        <v>563</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B272">
-        <v>182</v>
+        <v>589</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B273">
-        <v>669</v>
+        <v>591</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B274">
-        <v>3481</v>
+        <v>654</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B275">
-        <v>589</v>
+        <v>664</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B276">
-        <v>591</v>
+        <v>145</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B277">
-        <v>654</v>
+        <v>614</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B278">
-        <v>664</v>
+        <v>522</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B279">
-        <v>145</v>
+        <v>263</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B280">
-        <v>614</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B281">
-        <v>522</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B282">
-        <v>263</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B283">
-        <v>1021</v>
+        <v>347</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B284">
-        <v>2950</v>
+        <v>206</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B285">
-        <v>1227</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B286">
-        <v>347</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B287">
-        <v>206</v>
+        <v>632</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B288">
-        <v>1048</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B289">
-        <v>2250</v>
+        <v>272</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B290">
-        <v>632</v>
+        <v>509</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B291">
-        <v>2404</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B292">
-        <v>272</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B293">
-        <v>509</v>
+        <v>797</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B294">
-        <v>2029</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B295">
-        <v>1681</v>
+        <v>969</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B296">
-        <v>797</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B297">
-        <v>1042</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B298">
-        <v>969</v>
+        <v>775</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B299">
-        <v>1421</v>
+        <v>486</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B300">
-        <v>1432</v>
+        <v>718</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B301">
-        <v>775</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B302">
-        <v>486</v>
+        <v>651</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B303">
-        <v>718</v>
+        <v>267</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B304">
-        <v>1562</v>
+        <v>479</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B305">
-        <v>651</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B306">
-        <v>267</v>
+        <v>181</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B307">
-        <v>479</v>
+        <v>643</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B308">
-        <v>1198</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B309">
-        <v>181</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B310">
-        <v>643</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B311">
-        <v>1813</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B312">
-        <v>2441</v>
+        <v>313</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B313">
-        <v>1362</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B314">
-        <v>1096</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B315">
-        <v>313</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B316">
-        <v>3248</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>413</v>
-      </c>
-      <c r="B317">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>414</v>
-      </c>
-      <c r="B318">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>415</v>
-      </c>
-      <c r="B319">
         <v>580</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:B316">
+    <sortCondition ref="A3:A316"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="A1" location="Metadata!A1" display="Metadata" xr:uid="{91414C16-0379-4AE1-9D68-CA17DC967A8D}"/>
   </hyperlinks>
@@ -47265,7 +47231,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -56360,7 +56326,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -66047,11 +66013,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <EDRMSOwner xmlns="eb8c0be1-eb5f-4b09-9aad-2bd5a3d4f116" xsi:nil="true"/>
@@ -66061,6 +66022,11 @@
     <RetentionType xmlns="eb8c0be1-eb5f-4b09-9aad-2bd5a3d4f116">Notify</RetentionType>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66324,19 +66290,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64CC9D23-FBBC-4727-8F27-7513464020F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8EBB949-4CE2-4A2A-ABEC-B182BD975DF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="0d5a2a7e-a55c-4ef5-9daf-31d470aa1f16"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eb8c0be1-eb5f-4b09-9aad-2bd5a3d4f116"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8EBB949-4CE2-4A2A-ABEC-B182BD975DF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64CC9D23-FBBC-4727-8F27-7513464020F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eb8c0be1-eb5f-4b09-9aad-2bd5a3d4f116"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/R/MetricsData.xlsx
+++ b/R/MetricsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lauh/Documents/GitHub/subnational-indicators/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D2BD49-2309-FF42-B4F8-7471DDA02187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830A1531-E84B-8246-946E-AE87E6270BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="43520" windowHeight="22080" tabRatio="936" xr2:uid="{29FFEC2B-42A4-4A73-9DC2-F22313672F12}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="43520" windowHeight="22080" tabRatio="936" firstSheet="5" activeTab="17" xr2:uid="{29FFEC2B-42A4-4A73-9DC2-F22313672F12}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7977" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7971" uniqueCount="548">
   <si>
     <t>Worksheet</t>
   </si>
@@ -1702,15 +1702,6 @@
     <t>E10000002</t>
   </si>
   <si>
-    <t>Taunton Deane</t>
-  </si>
-  <si>
-    <t>localAuthorityDistrict</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>METADATA</t>
   </si>
   <si>
@@ -2219,8 +2210,8 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
@@ -2332,7 +2323,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="15" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>20</v>
@@ -2357,7 +2348,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="15" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>20</v>
@@ -2384,7 +2375,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>29</v>
@@ -2411,7 +2402,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>29</v>
@@ -2438,7 +2429,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>29</v>
@@ -2694,7 +2685,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="15" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>20</v>
@@ -2719,7 +2710,7 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="15" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>76</v>
@@ -2746,7 +2737,7 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="15" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>82</v>
@@ -2773,7 +2764,7 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="16" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>20</v>
@@ -2902,7 +2893,7 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="17" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>101</v>
@@ -16521,7 +16512,7 @@
   <dimension ref="A1:Z319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18764,33 +18755,15 @@
       <c r="D204" s="12"/>
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
-      <c r="R204" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="S204" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="T204" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="U204" s="13">
-        <v>201920</v>
-      </c>
-      <c r="V204" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="W204" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="X204" s="13">
-        <v>19</v>
-      </c>
-      <c r="Y204" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z204" s="13">
-        <v>71.196172250000004</v>
-      </c>
+      <c r="R204" s="13"/>
+      <c r="S204" s="13"/>
+      <c r="T204" s="13"/>
+      <c r="U204" s="13"/>
+      <c r="V204" s="13"/>
+      <c r="W204" s="13"/>
+      <c r="X204" s="13"/>
+      <c r="Y204" s="13"/>
+      <c r="Z204" s="13"/>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
@@ -20112,8 +20085,8 @@
   </sheetPr>
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29344,7 +29317,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -47686,7 +47659,7 @@
         <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -49502,7 +49475,7 @@
         <v>381</v>
       </c>
       <c r="B279" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
